--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H2">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I2">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J2">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.141061593183936</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N2">
-        <v>0.141061593183936</v>
+        <v>0.457523</v>
       </c>
       <c r="O2">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P2">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q2">
-        <v>6.822734310062583</v>
+        <v>9.193439659784111</v>
       </c>
       <c r="R2">
-        <v>6.822734310062583</v>
+        <v>82.740956938057</v>
       </c>
       <c r="S2">
-        <v>0.00828201243892898</v>
+        <v>0.009309475187576756</v>
       </c>
       <c r="T2">
-        <v>0.00828201243892898</v>
+        <v>0.009309475187576756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H3">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I3">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J3">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.82186594909713</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N3">
-        <v>1.82186594909713</v>
+        <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P3">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q3">
-        <v>88.11829668640985</v>
+        <v>119.4260812083436</v>
       </c>
       <c r="R3">
-        <v>88.11829668640985</v>
+        <v>1074.834730875092</v>
       </c>
       <c r="S3">
-        <v>0.1069654475886203</v>
+        <v>0.1209334243658602</v>
       </c>
       <c r="T3">
-        <v>0.1069654475886203</v>
+        <v>0.1209334243658602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H4">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I4">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J4">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.28887571942867</v>
+        <v>0.047446</v>
       </c>
       <c r="N4">
-        <v>1.28887571942867</v>
+        <v>0.142338</v>
       </c>
       <c r="O4">
-        <v>0.3963572257292723</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P4">
-        <v>0.3963572257292723</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q4">
-        <v>62.33912714204336</v>
+        <v>2.860131215904667</v>
       </c>
       <c r="R4">
-        <v>62.33912714204336</v>
+        <v>25.741180943142</v>
       </c>
       <c r="S4">
-        <v>0.07567250943084759</v>
+        <v>0.002896230526660518</v>
       </c>
       <c r="T4">
-        <v>0.07567250943084759</v>
+        <v>0.002896230526660518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8321817647457</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H5">
-        <v>45.8321817647457</v>
+        <v>180.845459</v>
       </c>
       <c r="I5">
-        <v>0.180914015431253</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J5">
-        <v>0.180914015431253</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.141061593183936</v>
+        <v>0.013399</v>
       </c>
       <c r="N5">
-        <v>0.141061593183936</v>
+        <v>0.040197</v>
       </c>
       <c r="O5">
-        <v>0.04337949802958513</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P5">
-        <v>0.04337949802958513</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q5">
-        <v>6.465160578830767</v>
+        <v>0.8077161017136668</v>
       </c>
       <c r="R5">
-        <v>6.465160578830767</v>
+        <v>7.269444915423001</v>
       </c>
       <c r="S5">
-        <v>0.007847959175924372</v>
+        <v>0.0008179107369793932</v>
       </c>
       <c r="T5">
-        <v>0.007847959175924372</v>
+        <v>0.0008179107369793932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.8321817647457</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H6">
-        <v>45.8321817647457</v>
+        <v>180.845459</v>
       </c>
       <c r="I6">
-        <v>0.180914015431253</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J6">
-        <v>0.180914015431253</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.82186594909713</v>
+        <v>1.385388</v>
       </c>
       <c r="N6">
-        <v>1.82186594909713</v>
+        <v>4.156164</v>
       </c>
       <c r="O6">
-        <v>0.5602632762411425</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P6">
-        <v>0.5602632762411425</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q6">
-        <v>83.5000913300206</v>
+        <v>83.51370958436401</v>
       </c>
       <c r="R6">
-        <v>83.5000913300206</v>
+        <v>751.6233862592761</v>
       </c>
       <c r="S6">
-        <v>0.1013594790034544</v>
+        <v>0.08456778267649881</v>
       </c>
       <c r="T6">
-        <v>0.1013594790034544</v>
+        <v>0.08456778267649881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H7">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I7">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J7">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.28887571942867</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N7">
-        <v>1.28887571942867</v>
+        <v>0.457523</v>
       </c>
       <c r="O7">
-        <v>0.3963572257292723</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P7">
-        <v>0.3963572257292723</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q7">
-        <v>59.07198624502218</v>
+        <v>6.992881780372889</v>
       </c>
       <c r="R7">
-        <v>59.07198624502218</v>
+        <v>62.935936023356</v>
       </c>
       <c r="S7">
-        <v>0.0717065772518742</v>
+        <v>0.007081142840237853</v>
       </c>
       <c r="T7">
-        <v>0.0717065772518742</v>
+        <v>0.007081142840237854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.1711736885905</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H8">
-        <v>46.1711736885905</v>
+        <v>137.557972</v>
       </c>
       <c r="I8">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J8">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.141061593183936</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N8">
-        <v>0.141061593183936</v>
+        <v>5.943388</v>
       </c>
       <c r="O8">
-        <v>0.04337949802958513</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P8">
-        <v>0.04337949802958513</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q8">
-        <v>6.512979319684803</v>
+        <v>90.84004445434844</v>
       </c>
       <c r="R8">
-        <v>6.512979319684803</v>
+        <v>817.560400089136</v>
       </c>
       <c r="S8">
-        <v>0.007906005611351727</v>
+        <v>0.09198658730371055</v>
       </c>
       <c r="T8">
-        <v>0.007906005611351727</v>
+        <v>0.09198658730371058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.1711736885905</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H9">
-        <v>46.1711736885905</v>
+        <v>137.557972</v>
       </c>
       <c r="I9">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J9">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.82186594909713</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>1.82186594909713</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.5602632762411425</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P9">
-        <v>0.5602632762411425</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q9">
-        <v>84.11768917309237</v>
+        <v>2.175525179837333</v>
       </c>
       <c r="R9">
-        <v>84.11768917309237</v>
+        <v>19.579726618536</v>
       </c>
       <c r="S9">
-        <v>0.102109171544029</v>
+        <v>0.00220298369610659</v>
       </c>
       <c r="T9">
-        <v>0.102109171544029</v>
+        <v>0.00220298369610659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.1711736885905</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H10">
-        <v>46.1711736885905</v>
+        <v>137.557972</v>
       </c>
       <c r="I10">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J10">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.28887571942867</v>
+        <v>0.013399</v>
       </c>
       <c r="N10">
-        <v>1.28887571942867</v>
+        <v>0.040197</v>
       </c>
       <c r="O10">
-        <v>0.3963572257292723</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P10">
-        <v>0.3963572257292723</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q10">
-        <v>59.50890470474815</v>
+        <v>0.6143797556093333</v>
       </c>
       <c r="R10">
-        <v>59.50890470474815</v>
+        <v>5.529417800484</v>
       </c>
       <c r="S10">
-        <v>0.07223694586272739</v>
+        <v>0.0006221341850552672</v>
       </c>
       <c r="T10">
-        <v>0.07223694586272739</v>
+        <v>0.0006221341850552672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.6726665520366</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H11">
-        <v>69.6726665520366</v>
+        <v>137.557972</v>
       </c>
       <c r="I11">
-        <v>0.2750198962037484</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J11">
-        <v>0.2750198962037484</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.141061593183936</v>
+        <v>1.385388</v>
       </c>
       <c r="N11">
-        <v>0.141061593183936</v>
+        <v>4.156164</v>
       </c>
       <c r="O11">
-        <v>0.04337949802958513</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P11">
-        <v>0.04337949802958513</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q11">
-        <v>9.828137345203411</v>
+        <v>63.523721237712</v>
       </c>
       <c r="R11">
-        <v>9.828137345203411</v>
+        <v>571.7134911394081</v>
       </c>
       <c r="S11">
-        <v>0.01193022504546721</v>
+        <v>0.06432548954140954</v>
       </c>
       <c r="T11">
-        <v>0.01193022504546721</v>
+        <v>0.06432548954140956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.6726665520366</v>
+        <v>49.248258</v>
       </c>
       <c r="H12">
-        <v>69.6726665520366</v>
+        <v>147.744774</v>
       </c>
       <c r="I12">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J12">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.82186594909713</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N12">
-        <v>1.82186594909713</v>
+        <v>0.457523</v>
       </c>
       <c r="O12">
-        <v>0.5602632762411425</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P12">
-        <v>0.5602632762411425</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q12">
-        <v>126.934258773954</v>
+        <v>7.510736914978</v>
       </c>
       <c r="R12">
-        <v>126.934258773954</v>
+        <v>67.596632234802</v>
       </c>
       <c r="S12">
-        <v>0.154083548078611</v>
+        <v>0.007605534113229435</v>
       </c>
       <c r="T12">
-        <v>0.154083548078611</v>
+        <v>0.007605534113229437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.6726665520366</v>
+        <v>49.248258</v>
       </c>
       <c r="H13">
-        <v>69.6726665520366</v>
+        <v>147.744774</v>
       </c>
       <c r="I13">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J13">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.28887571942867</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N13">
-        <v>1.28887571942867</v>
+        <v>5.943388</v>
       </c>
       <c r="O13">
-        <v>0.3963572257292723</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P13">
-        <v>0.3963572257292723</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q13">
-        <v>89.79940822677001</v>
+        <v>97.567168539368</v>
       </c>
       <c r="R13">
-        <v>89.79940822677001</v>
+        <v>878.104516854312</v>
       </c>
       <c r="S13">
-        <v>0.1090061230796702</v>
+        <v>0.09879861817254754</v>
       </c>
       <c r="T13">
-        <v>0.1090061230796702</v>
+        <v>0.09879861817254755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.91277768068</v>
+        <v>49.248258</v>
       </c>
       <c r="H14">
-        <v>31.91277768068</v>
+        <v>147.744774</v>
       </c>
       <c r="I14">
-        <v>0.1259697559983423</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J14">
-        <v>0.1259697559983423</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.141061593183936</v>
+        <v>0.047446</v>
       </c>
       <c r="N14">
-        <v>0.141061593183936</v>
+        <v>0.142338</v>
       </c>
       <c r="O14">
-        <v>0.04337949802958513</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P14">
-        <v>0.04337949802958513</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q14">
-        <v>4.501667262561475</v>
+        <v>2.336632849068</v>
       </c>
       <c r="R14">
-        <v>4.501667262561475</v>
+        <v>21.029695641612</v>
       </c>
       <c r="S14">
-        <v>0.005464504782117408</v>
+        <v>0.002366124795056973</v>
       </c>
       <c r="T14">
-        <v>0.005464504782117408</v>
+        <v>0.002366124795056973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.91277768068</v>
+        <v>49.248258</v>
       </c>
       <c r="H15">
-        <v>31.91277768068</v>
+        <v>147.744774</v>
       </c>
       <c r="I15">
-        <v>0.1259697559983423</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J15">
-        <v>0.1259697559983423</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.82186594909713</v>
+        <v>0.013399</v>
       </c>
       <c r="N15">
-        <v>1.82186594909713</v>
+        <v>0.040197</v>
       </c>
       <c r="O15">
-        <v>0.5602632762411425</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P15">
-        <v>0.5602632762411425</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q15">
-        <v>58.14080299753778</v>
+        <v>0.6598774089420001</v>
       </c>
       <c r="R15">
-        <v>58.14080299753778</v>
+        <v>5.938896680478001</v>
       </c>
       <c r="S15">
-        <v>0.07057622820292855</v>
+        <v>0.0006682060896380809</v>
       </c>
       <c r="T15">
-        <v>0.07057622820292855</v>
+        <v>0.000668206089638081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.91277768068</v>
+        <v>49.248258</v>
       </c>
       <c r="H16">
-        <v>31.91277768068</v>
+        <v>147.744774</v>
       </c>
       <c r="I16">
-        <v>0.1259697559983423</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J16">
-        <v>0.1259697559983423</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28887571942867</v>
+        <v>1.385388</v>
       </c>
       <c r="N16">
-        <v>1.28887571942867</v>
+        <v>4.156164</v>
       </c>
       <c r="O16">
-        <v>0.3963572257292723</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P16">
-        <v>0.3963572257292723</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q16">
-        <v>41.13160429215364</v>
+        <v>68.227945654104</v>
       </c>
       <c r="R16">
-        <v>41.13160429215364</v>
+        <v>614.0515108869361</v>
       </c>
       <c r="S16">
-        <v>0.04992902301329631</v>
+        <v>0.06908908859702377</v>
       </c>
       <c r="T16">
-        <v>0.04992902301329631</v>
+        <v>0.06908908859702378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.3809641745023</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H17">
-        <v>11.3809641745023</v>
+        <v>225.882973</v>
       </c>
       <c r="I17">
-        <v>0.04492423989015114</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J17">
-        <v>0.04492423989015114</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.141061593183936</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N17">
-        <v>0.141061593183936</v>
+        <v>0.457523</v>
       </c>
       <c r="O17">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P17">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q17">
-        <v>1.605416938424593</v>
+        <v>11.48296171731989</v>
       </c>
       <c r="R17">
-        <v>1.605416938424593</v>
+        <v>103.346655455879</v>
       </c>
       <c r="S17">
-        <v>0.001948790975795421</v>
+        <v>0.01162789457953473</v>
       </c>
       <c r="T17">
-        <v>0.001948790975795421</v>
+        <v>0.01162789457953473</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.3809641745023</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H18">
-        <v>11.3809641745023</v>
+        <v>225.882973</v>
       </c>
       <c r="I18">
-        <v>0.04492423989015114</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J18">
-        <v>0.04492423989015114</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.82186594909713</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N18">
-        <v>1.82186594909713</v>
+        <v>5.943388</v>
       </c>
       <c r="O18">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P18">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q18">
-        <v>20.73459109742007</v>
+        <v>149.1677945702804</v>
       </c>
       <c r="R18">
-        <v>20.73459109742007</v>
+        <v>1342.510151132524</v>
       </c>
       <c r="S18">
-        <v>0.0251694018234991</v>
+        <v>0.1510505244747734</v>
       </c>
       <c r="T18">
-        <v>0.0251694018234991</v>
+        <v>0.1510505244747734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>75.29432433333334</v>
+      </c>
+      <c r="H19">
+        <v>225.882973</v>
+      </c>
+      <c r="I19">
+        <v>0.2729459566083388</v>
+      </c>
+      <c r="J19">
+        <v>0.2729459566083388</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.047446</v>
+      </c>
+      <c r="N19">
+        <v>0.142338</v>
+      </c>
+      <c r="O19">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P19">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q19">
+        <v>3.572414512319333</v>
+      </c>
+      <c r="R19">
+        <v>32.151730610874</v>
+      </c>
+      <c r="S19">
+        <v>0.003617503947696213</v>
+      </c>
+      <c r="T19">
+        <v>0.003617503947696213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>75.29432433333334</v>
+      </c>
+      <c r="H20">
+        <v>225.882973</v>
+      </c>
+      <c r="I20">
+        <v>0.2729459566083388</v>
+      </c>
+      <c r="J20">
+        <v>0.2729459566083388</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.013399</v>
+      </c>
+      <c r="N20">
+        <v>0.040197</v>
+      </c>
+      <c r="O20">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P20">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q20">
+        <v>1.008868651742334</v>
+      </c>
+      <c r="R20">
+        <v>9.079817865681001</v>
+      </c>
+      <c r="S20">
+        <v>0.001021602145495544</v>
+      </c>
+      <c r="T20">
+        <v>0.001021602145495544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>75.29432433333334</v>
+      </c>
+      <c r="H21">
+        <v>225.882973</v>
+      </c>
+      <c r="I21">
+        <v>0.2729459566083388</v>
+      </c>
+      <c r="J21">
+        <v>0.2729459566083388</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.385388</v>
+      </c>
+      <c r="N21">
+        <v>4.156164</v>
+      </c>
+      <c r="O21">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P21">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q21">
+        <v>104.311853399508</v>
+      </c>
+      <c r="R21">
+        <v>938.8066805955721</v>
+      </c>
+      <c r="S21">
+        <v>0.1056284314608389</v>
+      </c>
+      <c r="T21">
+        <v>0.1056284314608389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>32.431974</v>
+      </c>
+      <c r="H22">
+        <v>97.295922</v>
+      </c>
+      <c r="I22">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="J22">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.457523</v>
+      </c>
+      <c r="O22">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P22">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q22">
+        <v>4.946124680134</v>
+      </c>
+      <c r="R22">
+        <v>44.515122121206</v>
+      </c>
+      <c r="S22">
+        <v>0.005008552477457582</v>
+      </c>
+      <c r="T22">
+        <v>0.005008552477457582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>32.431974</v>
+      </c>
+      <c r="H23">
+        <v>97.295922</v>
+      </c>
+      <c r="I23">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="J23">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N23">
+        <v>5.943388</v>
+      </c>
+      <c r="O23">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P23">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q23">
+        <v>64.25193502930401</v>
+      </c>
+      <c r="R23">
+        <v>578.267415263736</v>
+      </c>
+      <c r="S23">
+        <v>0.06506289452528431</v>
+      </c>
+      <c r="T23">
+        <v>0.06506289452528431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>32.431974</v>
+      </c>
+      <c r="H24">
+        <v>97.295922</v>
+      </c>
+      <c r="I24">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="J24">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.047446</v>
+      </c>
+      <c r="N24">
+        <v>0.142338</v>
+      </c>
+      <c r="O24">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P24">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q24">
+        <v>1.538767438404</v>
+      </c>
+      <c r="R24">
+        <v>13.848906945636</v>
+      </c>
+      <c r="S24">
+        <v>0.001558189080191285</v>
+      </c>
+      <c r="T24">
+        <v>0.001558189080191285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>32.431974</v>
+      </c>
+      <c r="H25">
+        <v>97.295922</v>
+      </c>
+      <c r="I25">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="J25">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.013399</v>
+      </c>
+      <c r="N25">
+        <v>0.040197</v>
+      </c>
+      <c r="O25">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P25">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q25">
+        <v>0.4345560196260001</v>
+      </c>
+      <c r="R25">
+        <v>3.911004176634</v>
+      </c>
+      <c r="S25">
+        <v>0.0004400407934384991</v>
+      </c>
+      <c r="T25">
+        <v>0.0004400407934384991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.3809641745023</v>
-      </c>
-      <c r="H19">
-        <v>11.3809641745023</v>
-      </c>
-      <c r="I19">
-        <v>0.04492423989015114</v>
-      </c>
-      <c r="J19">
-        <v>0.04492423989015114</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.28887571942867</v>
-      </c>
-      <c r="N19">
-        <v>1.28887571942867</v>
-      </c>
-      <c r="O19">
-        <v>0.3963572257292723</v>
-      </c>
-      <c r="P19">
-        <v>0.3963572257292723</v>
-      </c>
-      <c r="Q19">
-        <v>14.66864838820357</v>
-      </c>
-      <c r="R19">
-        <v>14.66864838820357</v>
-      </c>
-      <c r="S19">
-        <v>0.01780604709085662</v>
-      </c>
-      <c r="T19">
-        <v>0.01780604709085662</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.431974</v>
+      </c>
+      <c r="H26">
+        <v>97.295922</v>
+      </c>
+      <c r="I26">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="J26">
+        <v>0.1175676420036331</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.385388</v>
+      </c>
+      <c r="N26">
+        <v>4.156164</v>
+      </c>
+      <c r="O26">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P26">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q26">
+        <v>44.93086759591201</v>
+      </c>
+      <c r="R26">
+        <v>404.377808363208</v>
+      </c>
+      <c r="S26">
+        <v>0.04549796512726139</v>
+      </c>
+      <c r="T26">
+        <v>0.04549796512726139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H27">
+        <v>38.246885</v>
+      </c>
+      <c r="I27">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J27">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.457523</v>
+      </c>
+      <c r="O27">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P27">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q27">
+        <v>1.944314396206111</v>
+      </c>
+      <c r="R27">
+        <v>17.498829565855</v>
+      </c>
+      <c r="S27">
+        <v>0.001968854672262473</v>
+      </c>
+      <c r="T27">
+        <v>0.001968854672262474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H28">
+        <v>38.246885</v>
+      </c>
+      <c r="I28">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J28">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N28">
+        <v>5.943388</v>
+      </c>
+      <c r="O28">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P28">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q28">
+        <v>25.25734192737555</v>
+      </c>
+      <c r="R28">
+        <v>227.31607734638</v>
+      </c>
+      <c r="S28">
+        <v>0.02557612892219346</v>
+      </c>
+      <c r="T28">
+        <v>0.02557612892219346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H29">
+        <v>38.246885</v>
+      </c>
+      <c r="I29">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J29">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.047446</v>
+      </c>
+      <c r="N29">
+        <v>0.142338</v>
+      </c>
+      <c r="O29">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P29">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q29">
+        <v>0.6048872352366665</v>
+      </c>
+      <c r="R29">
+        <v>5.44398511713</v>
+      </c>
+      <c r="S29">
+        <v>0.0006125218542903765</v>
+      </c>
+      <c r="T29">
+        <v>0.0006125218542903766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H30">
+        <v>38.246885</v>
+      </c>
+      <c r="I30">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J30">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.013399</v>
+      </c>
+      <c r="N30">
+        <v>0.040197</v>
+      </c>
+      <c r="O30">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P30">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q30">
+        <v>0.1708233373716667</v>
+      </c>
+      <c r="R30">
+        <v>1.537410036345</v>
+      </c>
+      <c r="S30">
+        <v>0.000172979393956008</v>
+      </c>
+      <c r="T30">
+        <v>0.0001729793939560081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H31">
+        <v>38.246885</v>
+      </c>
+      <c r="I31">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J31">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.385388</v>
+      </c>
+      <c r="N31">
+        <v>4.156164</v>
+      </c>
+      <c r="O31">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P31">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q31">
+        <v>17.66225850546</v>
+      </c>
+      <c r="R31">
+        <v>158.96032654914</v>
+      </c>
+      <c r="S31">
+        <v>0.01788518371773461</v>
+      </c>
+      <c r="T31">
+        <v>0.01788518371773461</v>
       </c>
     </row>
   </sheetData>
